--- a/DescargasUI/Recursos/Auditoria.xlsx
+++ b/DescargasUI/Recursos/Auditoria.xlsx
@@ -48,6 +48,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -91,7 +94,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -99,6 +102,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -382,14 +389,14 @@
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" customWidth="1"/>
     <col min="2" max="2" width="45.7109375" style="1" customWidth="1"/>
-    <col min="3" max="5" width="18.7109375" customWidth="1"/>
+    <col min="3" max="5" width="18.7109375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -399,13 +406,13 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
